--- a/data/trans_dic/P1002-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1002-Dificultad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08632172876285257</v>
+        <v>0.08603790050377778</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06226699816324436</v>
+        <v>0.061091935312758</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06131408062466139</v>
+        <v>0.06094300519959901</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1015545007067237</v>
+        <v>0.1036160635088833</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1175678611232851</v>
+        <v>0.1147484201043395</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1726073614962325</v>
+        <v>0.17360642714848</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1312428802806031</v>
+        <v>0.1308431077432989</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1832334423593895</v>
+        <v>0.1820360023823248</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1103696914558725</v>
+        <v>0.110547044052264</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.122890535854672</v>
+        <v>0.1250640733738697</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1042158835585702</v>
+        <v>0.1031449499957932</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1557232604162178</v>
+        <v>0.1546925927342253</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1403019698172053</v>
+        <v>0.1395050243664833</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09802756919071727</v>
+        <v>0.09471447881139992</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09373057125405489</v>
+        <v>0.09365329164715135</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1627392787096308</v>
+        <v>0.165346865421519</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.162759389367961</v>
+        <v>0.1617964945186353</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2196307344107911</v>
+        <v>0.2231077804812017</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1703837719243721</v>
+        <v>0.1721300591648396</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2394540556492554</v>
+        <v>0.2392793937527558</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1448711281008337</v>
+        <v>0.1456318112460584</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1537893371068351</v>
+        <v>0.1570203133354876</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1298541355835653</v>
+        <v>0.1310733217614294</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1961285437808932</v>
+        <v>0.1988397482567672</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04317077117337215</v>
+        <v>0.04151928355370185</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05420119132218813</v>
+        <v>0.0545674685834564</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03404945240327289</v>
+        <v>0.03496281242522387</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05212430458985247</v>
+        <v>0.05217836341042661</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05051098578285396</v>
+        <v>0.05218510779131343</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1138311395916551</v>
+        <v>0.1138387043632059</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06589701247344766</v>
+        <v>0.06673815911854913</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.09884313265291018</v>
+        <v>0.09678089207575089</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05085293482906539</v>
+        <v>0.05071832967868636</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.08907171835101417</v>
+        <v>0.08965704102382779</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05551274584328234</v>
+        <v>0.05541558394019756</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.08081945126882817</v>
+        <v>0.08171054992245561</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07034741424589369</v>
+        <v>0.06933387452103598</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09123947158917808</v>
+        <v>0.09119511604009231</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06439417031927409</v>
+        <v>0.06332918527591358</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08379587385605887</v>
+        <v>0.08405382478228537</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08035521650244262</v>
+        <v>0.08228326152669628</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1568206773741097</v>
+        <v>0.1553896758842645</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1027104545610435</v>
+        <v>0.1030004473927961</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1310939580028704</v>
+        <v>0.1296596115077784</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07208814142218668</v>
+        <v>0.07189166266309237</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1190345022702336</v>
+        <v>0.1186870905745399</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07927656044677414</v>
+        <v>0.07988706379571961</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1034822655209401</v>
+        <v>0.1058775133434972</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.07708521469935208</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.07288337268364611</v>
+        <v>0.07288337268364613</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.04255766124475385</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0172830873305317</v>
+        <v>0.01687135718833974</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04687797748320496</v>
+        <v>0.04750780952467359</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02891869416748625</v>
+        <v>0.02855346978176168</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02297198377667689</v>
+        <v>0.02321229780432042</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04774017938877237</v>
+        <v>0.04775851913926636</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07705494882864938</v>
+        <v>0.07606677393888846</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0601399161212443</v>
+        <v>0.05913169194798659</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05979671077493227</v>
+        <v>0.05881058220477412</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03522742640681272</v>
+        <v>0.03349757493024466</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0667443636327399</v>
+        <v>0.06630639966762032</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04708898961922196</v>
+        <v>0.04768807438346832</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04411984747752475</v>
+        <v>0.04496098628382019</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03690117471849368</v>
+        <v>0.03700802573960043</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08251713945682142</v>
+        <v>0.08341314565574708</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05661135531437018</v>
+        <v>0.05665787627045406</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04503457865958353</v>
+        <v>0.04594829830946731</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07822379481819212</v>
+        <v>0.07857898482059342</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1158199322147449</v>
+        <v>0.1156421024154324</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.09897667838242517</v>
+        <v>0.1024713312784106</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.08908979449677777</v>
+        <v>0.08669880146663472</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05274119839791106</v>
+        <v>0.05087198150491551</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.09396913251256295</v>
+        <v>0.09250322989261643</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07123113271139608</v>
+        <v>0.07161313310560848</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06272177516554757</v>
+        <v>0.06221197667344699</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.05394659116566217</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.05121539191589873</v>
+        <v>0.05121539191589872</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01316191689214482</v>
+        <v>0.01299576466159195</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03042823419492197</v>
+        <v>0.02850028387693605</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01510621480473176</v>
+        <v>0.01521242692054782</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02233618360896492</v>
+        <v>0.02242488043386338</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03557134746652485</v>
+        <v>0.03545674571628366</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06980802729238637</v>
+        <v>0.07082331784462501</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05852017023515164</v>
+        <v>0.05812750794337624</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05613000123189775</v>
+        <v>0.05570162934659256</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02742275987184351</v>
+        <v>0.02723397830224292</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05387339733765532</v>
+        <v>0.05392651297483605</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04108335773230325</v>
+        <v>0.04017896180327765</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0409773548839036</v>
+        <v>0.04210572113078911</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04338615351414166</v>
+        <v>0.04192914832643827</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07112373205563334</v>
+        <v>0.07096357554013838</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04789573270467913</v>
+        <v>0.04675535235089726</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04996865799152578</v>
+        <v>0.05060572444790652</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0875734463585509</v>
+        <v>0.08542682511625108</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1265735152390577</v>
+        <v>0.1259808215231629</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1084802825022996</v>
+        <v>0.1099295188720569</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08633421847750111</v>
+        <v>0.08591733928444609</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05512526892800615</v>
+        <v>0.05617427255423049</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.08917735491337513</v>
+        <v>0.0895603169070413</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07116008743252976</v>
+        <v>0.06929547955571159</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.06127537940044531</v>
+        <v>0.06214884124597679</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.052806601872112</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.05692704788421459</v>
+        <v>0.05692704788421458</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.08389483165475135</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04303712487227775</v>
+        <v>0.04372108383551535</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05901873397285317</v>
+        <v>0.05860757890330501</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04478368896590049</v>
+        <v>0.04574197736483483</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0496558267791008</v>
+        <v>0.04898006400876353</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0751676867998808</v>
+        <v>0.07535972785983143</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1266052897129417</v>
+        <v>0.1268293300571182</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09673968963984769</v>
+        <v>0.09600592959261589</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.09886889768092652</v>
+        <v>0.09830522255019931</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06131973779044833</v>
+        <v>0.06210313190760514</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.09654138731878292</v>
+        <v>0.0967299529640533</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07262954553477022</v>
+        <v>0.07294450951569433</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07752997698057852</v>
+        <v>0.07693219175452232</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05902663844729011</v>
+        <v>0.05937039183057609</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07779449058750348</v>
+        <v>0.07756477677263567</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06055927408775753</v>
+        <v>0.06182807873909501</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06485630837658317</v>
+        <v>0.06522908703956548</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.09394433165140759</v>
+        <v>0.09343416944096368</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1513785319758558</v>
+        <v>0.1503991469992833</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1176931002222301</v>
+        <v>0.1170939070877502</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1164923153247927</v>
+        <v>0.1160748781073844</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.07393329831449194</v>
+        <v>0.0742961135636727</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.112156351725223</v>
+        <v>0.1112431979084386</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.08684563740296133</v>
+        <v>0.08689688049684231</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.08982471301006334</v>
+        <v>0.08894050227967762</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>50424</v>
+        <v>50258</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>65003</v>
+        <v>63776</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>69162</v>
+        <v>68744</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>50649</v>
+        <v>51677</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>108437</v>
+        <v>105836</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>193308</v>
+        <v>194427</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>165308</v>
+        <v>164805</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>114158</v>
+        <v>113412</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>166269</v>
+        <v>166536</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>265918</v>
+        <v>270622</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>248821</v>
+        <v>246265</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>174684</v>
+        <v>173528</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>81956</v>
+        <v>81491</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>102334</v>
+        <v>98876</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>105728</v>
+        <v>105641</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>81164</v>
+        <v>82465</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>150118</v>
+        <v>149230</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>245971</v>
+        <v>249865</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>214609</v>
+        <v>216808</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>149184</v>
+        <v>149076</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>218245</v>
+        <v>219391</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>332779</v>
+        <v>339770</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>310034</v>
+        <v>312945</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>220009</v>
+        <v>223050</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>46534</v>
+        <v>44753</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>52908</v>
+        <v>53265</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>30945</v>
+        <v>31775</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>50014</v>
+        <v>50066</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>53417</v>
+        <v>55188</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>124333</v>
+        <v>124342</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>66324</v>
+        <v>67170</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>110221</v>
+        <v>107921</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>108593</v>
+        <v>108306</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>184236</v>
+        <v>185446</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>106324</v>
+        <v>106137</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>167670</v>
+        <v>169519</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>75827</v>
+        <v>74735</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>89062</v>
+        <v>89019</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>58523</v>
+        <v>57555</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>80404</v>
+        <v>80651</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>84979</v>
+        <v>87018</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>171289</v>
+        <v>169726</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>103376</v>
+        <v>103667</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>146184</v>
+        <v>144585</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>153939</v>
+        <v>153520</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>246211</v>
+        <v>245492</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>151838</v>
+        <v>153008</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>214687</v>
+        <v>219657</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>19385</v>
+        <v>18923</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>41492</v>
+        <v>42050</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>23822</v>
+        <v>23521</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>24040</v>
+        <v>24291</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>47451</v>
+        <v>47469</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>67484</v>
+        <v>66619</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>46371</v>
+        <v>45594</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>62646</v>
+        <v>61612</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>74525</v>
+        <v>70865</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>117531</v>
+        <v>116760</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>75098</v>
+        <v>76054</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>92392</v>
+        <v>94154</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>41388</v>
+        <v>41508</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>73037</v>
+        <v>73830</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>46634</v>
+        <v>46672</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>47128</v>
+        <v>48084</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>77750</v>
+        <v>78103</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>101435</v>
+        <v>101279</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>76317</v>
+        <v>79011</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>93334</v>
+        <v>90829</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>111576</v>
+        <v>107621</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>165471</v>
+        <v>162890</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>113601</v>
+        <v>114210</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>131347</v>
+        <v>130279</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5886</v>
+        <v>5812</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>15274</v>
+        <v>14306</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7654</v>
+        <v>7708</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>21785</v>
+        <v>21872</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12135</v>
+        <v>12096</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>31605</v>
+        <v>32064</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>28657</v>
+        <v>28465</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>50968</v>
+        <v>50579</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>21619</v>
+        <v>21470</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>51433</v>
+        <v>51484</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>40935</v>
+        <v>40034</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>77176</v>
+        <v>79301</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>19402</v>
+        <v>18751</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>35702</v>
+        <v>35622</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>24269</v>
+        <v>23691</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>48737</v>
+        <v>49358</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>29876</v>
+        <v>29144</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>57304</v>
+        <v>57036</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>53123</v>
+        <v>53832</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>78395</v>
+        <v>78016</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>43458</v>
+        <v>44285</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>85138</v>
+        <v>85504</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>70904</v>
+        <v>69046</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>115405</v>
+        <v>117050</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>139046</v>
+        <v>141255</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>201086</v>
+        <v>199685</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>150799</v>
+        <v>154026</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>172806</v>
+        <v>170455</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>249179</v>
+        <v>249815</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>448274</v>
+        <v>449067</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>341181</v>
+        <v>338593</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>365203</v>
+        <v>363121</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>401387</v>
+        <v>406515</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>670758</v>
+        <v>672068</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>500714</v>
+        <v>502885</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>556192</v>
+        <v>551903</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>190705</v>
+        <v>191816</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>265058</v>
+        <v>264275</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>203920</v>
+        <v>208193</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>225705</v>
+        <v>227003</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>311423</v>
+        <v>309731</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>535989</v>
+        <v>532522</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>415079</v>
+        <v>412966</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>430300</v>
+        <v>428759</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>483952</v>
+        <v>486327</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>779248</v>
+        <v>772904</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>598720</v>
+        <v>599074</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>644393</v>
+        <v>638050</v>
       </c>
     </row>
     <row r="24">
